--- a/卒論/実験データ.xlsx
+++ b/卒論/実験データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kousuke/Documents/研究/卒論/卒論/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80FC77D-A697-A340-B4B3-E44EDC982136}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B574753F-FB74-6A4B-AE2C-2F9CBCDD9305}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="520" windowWidth="38400" windowHeight="21140" xr2:uid="{9B5B4D4D-ECA4-1F41-853E-1BF01286E3E5}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="39620" windowHeight="21140" xr2:uid="{9B5B4D4D-ECA4-1F41-853E-1BF01286E3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>システムを使用しているグループとしていないグループのどちらがうまくいったか</t>
   </si>
@@ -337,6 +337,31 @@
     <t>誰がどのグラフかわからなかった</t>
     <rPh sb="0" eb="1">
       <t>ダレガドノグラフカワカラナカッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実用性得点</t>
+    <rPh sb="0" eb="2">
+      <t>ジツヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独創性</t>
+    <rPh sb="0" eb="2">
+      <t>ドクソウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム使用の有無</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,6 +428,832 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19005159824987983"/>
+          <c:y val="0.35034164265502532"/>
+          <c:w val="0.44642581646153157"/>
+          <c:h val="0.6467285058391542"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>システムを使用しているグループとしていないグループのどちらがうまくいったか</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>使用したグループ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>使用していないグループ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF12-2E49-80FC-01DA2ECFE852}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4222750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>64710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514048</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>151191</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BA1B3E-2B37-2D4A-9438-E1A547AB0267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,24 +1553,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E781CB-D8E9-CF40-AFA2-E67019AC3230}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="B2:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="48.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:22">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -727,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:22">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -737,8 +1589,52 @@
       <c r="D3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>11</v>
+      </c>
+      <c r="V3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -757,8 +1653,11 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
       <c r="C6">
         <v>3</v>
       </c>
@@ -774,8 +1673,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -795,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:22">
       <c r="C8">
         <v>4</v>
       </c>
@@ -812,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:22">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -820,32 +1722,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:22">
       <c r="C11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:22">
       <c r="C12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:22">
       <c r="C13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:22">
       <c r="C14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:22">
       <c r="C15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:22">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -982,5 +1884,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/卒論/実験データ.xlsx
+++ b/卒論/実験データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kousuke/Documents/研究/卒論/卒論/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B574753F-FB74-6A4B-AE2C-2F9CBCDD9305}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6AEE74-5407-424A-B491-49C0B90F686F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="39620" windowHeight="21140" xr2:uid="{9B5B4D4D-ECA4-1F41-853E-1BF01286E3E5}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{9B5B4D4D-ECA4-1F41-853E-1BF01286E3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>システムを使用しているグループとしていないグループのどちらがうまくいったか</t>
   </si>
@@ -362,6 +362,236 @@
     <t>システム使用の有無</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工藤華</t>
+    <rPh sb="0" eb="2">
+      <t>クドウハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>communication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visualization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>analyze</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>policy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋アイネ</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小泉建敬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木定裕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>許雅貞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小松裕奈</t>
+    <rPh sb="0" eb="2">
+      <t>コマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太田健吾</t>
+    <rPh sb="0" eb="2">
+      <t>オオタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Haru jo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alexian THOMAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Masayuki Takahashi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Koki chiba</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川誠也</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小嶋ゆうき</t>
+    <rPh sb="0" eb="2">
+      <t>コジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田島たくみ</t>
+    <rPh sb="0" eb="2">
+      <t>タシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蝦名潤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ６</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ７</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ８</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ９</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ１１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩田良樹</t>
+    <rPh sb="0" eb="2">
+      <t>シオタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤翔太郎</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小島航</t>
+    <rPh sb="0" eb="2">
+      <t>コジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ１２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実用性</t>
+    <rPh sb="0" eb="2">
+      <t>ジツヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tech</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>poli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスエム有無</t>
+    <rPh sb="0" eb="2">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無</t>
+    <rPh sb="0" eb="1">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有</t>
+    <rPh sb="0" eb="1">
+      <t>アリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -370,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,6 +613,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -409,8 +648,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,6 +761,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F989-0646-AC49-18855F1C806A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -536,6 +783,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F989-0646-AC49-18855F1C806A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1553,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E781CB-D8E9-CF40-AFA2-E67019AC3230}">
-  <dimension ref="B2:V42"/>
+  <dimension ref="B2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="84" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1569,6 +1821,8 @@
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="48.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
@@ -1726,158 +1980,712 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="2:22">
       <c r="C12" t="s">
         <v>17</v>
       </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12">
+        <v>6.1</v>
+      </c>
+      <c r="L12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M12">
+        <v>6.1</v>
+      </c>
+      <c r="N12">
+        <v>3.5</v>
+      </c>
+      <c r="O12">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="13" spans="2:22">
       <c r="C13" t="s">
         <v>18</v>
       </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>4.7</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O13">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="14" spans="2:22">
       <c r="C14" t="s">
         <v>19</v>
       </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>7.3</v>
+      </c>
+      <c r="L14">
+        <v>2.6</v>
+      </c>
+      <c r="M14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N14">
+        <v>3.4</v>
+      </c>
+      <c r="O14">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="15" spans="2:22">
       <c r="C15" t="s">
         <v>20</v>
       </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L15">
+        <v>5.3</v>
+      </c>
+      <c r="M15">
+        <v>6.2</v>
+      </c>
+      <c r="N15">
+        <v>2.8</v>
+      </c>
+      <c r="O15">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="16" spans="2:22">
       <c r="C16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16">
+        <v>6.3</v>
+      </c>
+      <c r="L16">
+        <v>5.8</v>
+      </c>
+      <c r="M16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
       <c r="C17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L17">
+        <v>6.1</v>
+      </c>
+      <c r="M17">
+        <v>5.2</v>
+      </c>
+      <c r="N17">
+        <v>2.6</v>
+      </c>
+      <c r="O17">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
       <c r="C18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18">
+        <v>7.2</v>
+      </c>
+      <c r="L18">
+        <v>7.2</v>
+      </c>
+      <c r="M18">
+        <v>7.2</v>
+      </c>
+      <c r="N18">
+        <v>6.8</v>
+      </c>
+      <c r="O18">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
       <c r="C19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L19">
+        <v>5.5</v>
+      </c>
+      <c r="M19">
+        <v>6.9</v>
+      </c>
+      <c r="N19">
+        <v>2.5</v>
+      </c>
+      <c r="O19">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
       <c r="C20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="J20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20">
+        <v>6.2</v>
+      </c>
+      <c r="L20">
+        <v>5.4</v>
+      </c>
+      <c r="M20">
+        <v>8.1</v>
+      </c>
+      <c r="N20">
+        <v>3.5</v>
+      </c>
+      <c r="O20">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
       <c r="C21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M21">
+        <v>8.5</v>
+      </c>
+      <c r="N21">
+        <v>7.4</v>
+      </c>
+      <c r="O21">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
       <c r="C22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22">
+        <v>3.7</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>5.3</v>
+      </c>
+      <c r="N22">
+        <v>6.6</v>
+      </c>
+      <c r="O22">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
       <c r="C23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23">
+        <v>5.5</v>
+      </c>
+      <c r="L23">
+        <v>5.2</v>
+      </c>
+      <c r="M23">
+        <v>5.4</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
       <c r="C24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="J24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24">
+        <v>5.4</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="M24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O24">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
       <c r="C25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
+      <c r="J25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25">
+        <v>6.3</v>
+      </c>
+      <c r="L25">
+        <v>5.6</v>
+      </c>
+      <c r="M25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N25">
+        <v>6.9</v>
+      </c>
+      <c r="O25">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
       <c r="C26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="J26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>2.8</v>
+      </c>
+      <c r="M26">
+        <v>7.8</v>
+      </c>
+      <c r="N26">
+        <v>7.4</v>
+      </c>
+      <c r="O26">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27">
+        <v>7.9</v>
+      </c>
+      <c r="L27">
+        <v>4.3</v>
+      </c>
+      <c r="M27">
+        <v>7.2</v>
+      </c>
+      <c r="N27">
+        <v>7.2</v>
+      </c>
+      <c r="O27">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <v>6.1</v>
+      </c>
+      <c r="M28">
+        <v>7.2</v>
+      </c>
+      <c r="N28">
+        <v>4.8</v>
+      </c>
+      <c r="O28">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19">
       <c r="C29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29">
+        <v>8.4</v>
+      </c>
+      <c r="L29">
+        <v>2.8</v>
+      </c>
+      <c r="M29">
+        <v>7.8</v>
+      </c>
+      <c r="N29">
+        <v>7.4</v>
+      </c>
+      <c r="O29">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
       <c r="C30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:19">
       <c r="C31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
+      <c r="K31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>91</v>
+      </c>
+      <c r="R31" t="s">
+        <v>92</v>
+      </c>
+      <c r="S31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
       <c r="C32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="3:3">
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14">
       <c r="C33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="3:3">
+      <c r="J33" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14">
       <c r="C34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="3:3">
+      <c r="J34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14">
       <c r="C35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="3:3">
+      <c r="J35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>7</v>
+      </c>
+      <c r="N35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14">
       <c r="C36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="3:3">
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14">
       <c r="C37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="3:3">
+      <c r="J37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37">
+        <v>4.5</v>
+      </c>
+      <c r="L37">
+        <v>4.5</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
       <c r="C38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="3:3">
+      <c r="J38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38">
+        <v>4.5</v>
+      </c>
+      <c r="L38">
+        <v>4.5</v>
+      </c>
+      <c r="M38">
+        <v>9</v>
+      </c>
+      <c r="N38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14">
       <c r="C39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="3:3">
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39">
+        <v>2.5</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>6.5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14">
       <c r="C40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="3:3">
+      <c r="J40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14">
       <c r="C41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="3:3">
+      <c r="J41" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41">
+        <v>4.5</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>9.5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14">
       <c r="C42" t="s">
         <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="J43" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>3.5</v>
+      </c>
+      <c r="M43">
+        <v>5.5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/卒論/実験データ.xlsx
+++ b/卒論/実験データ.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kousuke/Documents/研究/卒論/卒論/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6AEE74-5407-424A-B491-49C0B90F686F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86234F75-7B8B-9C4F-A5AB-4785A4A816FC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{9B5B4D4D-ECA4-1F41-853E-1BF01286E3E5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{9B5B4D4D-ECA4-1F41-853E-1BF01286E3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
   <si>
     <t>システムを使用しているグループとしていないグループのどちらがうまくいったか</t>
   </si>
@@ -592,6 +592,13 @@
     <t>有</t>
     <rPh sb="0" eb="1">
       <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -942,9 +949,717 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スキルチャートを見ることで相手への理解が深まったか</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>とても深まった</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>深まった</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>どちらでもない</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>深まらなかった</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>全く深まらなかった</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-871D-9D48-A6F2-0CA5272471AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2140468672"/>
+        <c:axId val="2140960912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2140468672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140960912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140960912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140468672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>本システムをまた使用したいと思うか</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>とてもそう思う</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>そう思う</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>どちらでもない</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>そう思わない</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>全くそう思わない</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F060-E44B-B770-A36FA0A6F14B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2110623264"/>
+        <c:axId val="2115740496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2110623264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115740496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2115740496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110623264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1435,6 +2150,1012 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1500,6 +3221,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>955842</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>106948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1056105</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>241968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B324621-51CD-9D4F-A3A9-7987016EC80B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>835525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>187158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1390315</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>215231</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C06B63-7618-B341-ABC6-270B24E9DE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1807,8 +3600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E781CB-D8E9-CF40-AFA2-E67019AC3230}">
   <dimension ref="B2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1998,6 +3791,9 @@
       <c r="O11" t="s">
         <v>58</v>
       </c>
+      <c r="P11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="2:22">
       <c r="C12" t="s">
@@ -2021,6 +3817,10 @@
       <c r="O12">
         <v>6.7</v>
       </c>
+      <c r="P12">
+        <f>SUM(K12:O12)</f>
+        <v>27.3</v>
+      </c>
     </row>
     <row r="13" spans="2:22">
       <c r="C13" t="s">
@@ -2044,6 +3844,10 @@
       <c r="O13">
         <v>5.9</v>
       </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P29" si="0">SUM(K13:O13)</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="2:22">
       <c r="C14" t="s">
@@ -2067,6 +3871,10 @@
       <c r="O14">
         <v>6.4</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="2:22">
       <c r="C15" t="s">
@@ -2090,6 +3898,10 @@
       <c r="O15">
         <v>5.8</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>24.7</v>
+      </c>
     </row>
     <row r="16" spans="2:22">
       <c r="C16" t="s">
@@ -2113,6 +3925,10 @@
       <c r="O16">
         <v>4.8</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
     </row>
     <row r="17" spans="2:19">
       <c r="C17" t="s">
@@ -2136,6 +3952,10 @@
       <c r="O17">
         <v>4.4000000000000004</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>22.9</v>
+      </c>
     </row>
     <row r="18" spans="2:19">
       <c r="C18" t="s">
@@ -2159,6 +3979,10 @@
       <c r="O18">
         <v>8.5</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>36.900000000000006</v>
+      </c>
     </row>
     <row r="19" spans="2:19">
       <c r="C19" t="s">
@@ -2182,6 +4006,10 @@
       <c r="O19">
         <v>2.9</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>22.7</v>
+      </c>
     </row>
     <row r="20" spans="2:19">
       <c r="C20" t="s">
@@ -2205,6 +4033,10 @@
       <c r="O20">
         <v>5.0999999999999996</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>28.300000000000004</v>
+      </c>
     </row>
     <row r="21" spans="2:19">
       <c r="C21" t="s">
@@ -2228,6 +4060,10 @@
       <c r="O21">
         <v>7.9</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>35.9</v>
+      </c>
     </row>
     <row r="22" spans="2:19">
       <c r="C22" t="s">
@@ -2251,6 +4087,10 @@
       <c r="O22">
         <v>4.5999999999999996</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>25.200000000000003</v>
+      </c>
     </row>
     <row r="23" spans="2:19">
       <c r="C23" t="s">
@@ -2274,6 +4114,10 @@
       <c r="O23">
         <v>4.4000000000000004</v>
       </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
     </row>
     <row r="24" spans="2:19">
       <c r="C24" t="s">
@@ -2297,6 +4141,10 @@
       <c r="O24">
         <v>4.5999999999999996</v>
       </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>25.700000000000003</v>
+      </c>
     </row>
     <row r="25" spans="2:19">
       <c r="C25" t="s">
@@ -2320,6 +4168,10 @@
       <c r="O25">
         <v>6.2</v>
       </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>33.800000000000004</v>
+      </c>
     </row>
     <row r="26" spans="2:19">
       <c r="C26" t="s">
@@ -2343,6 +4195,10 @@
       <c r="O26">
         <v>6.9</v>
       </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
+      </c>
     </row>
     <row r="27" spans="2:19">
       <c r="J27" t="s">
@@ -2363,6 +4219,10 @@
       <c r="O27">
         <v>6.9</v>
       </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>33.5</v>
+      </c>
     </row>
     <row r="28" spans="2:19">
       <c r="B28" t="s">
@@ -2389,6 +4249,10 @@
       <c r="O28">
         <v>7.3</v>
       </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
+      </c>
     </row>
     <row r="29" spans="2:19">
       <c r="C29" t="s">
@@ -2411,6 +4275,10 @@
       </c>
       <c r="O29">
         <v>6.9</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="30" spans="2:19">

--- a/卒論/実験データ.xlsx
+++ b/卒論/実験データ.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kousuke/Documents/研究/卒論/卒論/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86234F75-7B8B-9C4F-A5AB-4785A4A816FC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F77C39-E69D-BB47-8D80-13414CD8C2A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{9B5B4D4D-ECA4-1F41-853E-1BF01286E3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$D$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$3:$D$3</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -680,276 +684,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="3"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.19005159824987983"/>
-          <c:y val="0.35034164265502532"/>
-          <c:w val="0.44642581646153157"/>
-          <c:h val="0.6467285058391542"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>システムを使用しているグループとしていないグループのどちらがうまくいったか</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F989-0646-AC49-18855F1C806A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F989-0646-AC49-18855F1C806A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$2:$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>使用したグループ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>使用していないグループ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF12-2E49-80FC-01DA2ECFE852}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1263,7 +997,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1577,9 +1311,1367 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AFD3-2C46-BE2A-7FFFB7835B45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-AFD3-2C46-BE2A-7FFFB7835B45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AFD3-2C46-BE2A-7FFFB7835B45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AFD3-2C46-BE2A-7FFFB7835B45}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{166A3A9D-D3EC-6F45-8D14-02787C31F5D3}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{C1F3650F-4155-3240-A7ED-D4DF31413F43}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AFD3-2C46-BE2A-7FFFB7835B45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1573763136669313E-2"/>
+                  <c:y val="-0.20702669546971639"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{461A3704-AE42-D84D-96E1-FD0B6B03F938}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{DC280600-A5E5-8D4F-893B-CC546A0301EE}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AFD3-2C46-BE2A-7FFFB7835B45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7BFC1445-7744-B54B-92D6-9EC750CC044B}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{CE6A7E5D-7894-B244-B6BA-8C591C81E61F}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AFD3-2C46-BE2A-7FFFB7835B45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AFD3-2C46-BE2A-7FFFB7835B45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>とても深まった</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>深まった</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>どちらでもない</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>深まらなかった</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>全く深まらなかった</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFD3-2C46-BE2A-7FFFB7835B45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D6AC-FC48-A72F-DC33BDD1D5E7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-D6AC-FC48-A72F-DC33BDD1D5E7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-D6AC-FC48-A72F-DC33BDD1D5E7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D6AC-FC48-A72F-DC33BDD1D5E7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{13B321D1-7CFB-774A-9177-C6853B8556BC}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{C20D390A-8E57-9B40-A5C8-DDBAB24410F3}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D6AC-FC48-A72F-DC33BDD1D5E7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2328458942632171E-3"/>
+                  <c:y val="-0.21656494037789326"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D1A805A5-F2AD-9F4D-A997-632D387579BC}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{EA5EB891-3862-E241-B5BD-A1193689728F}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D6AC-FC48-A72F-DC33BDD1D5E7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{70548EA8-2326-E545-BBB0-6BEA7D79A72A}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{A5B87A36-CFED-BE49-8938-5483B3B5C617}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D6AC-FC48-A72F-DC33BDD1D5E7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8298B75F-C30D-CA42-B90C-EDD3E20B698C}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{77852E56-4CB4-A646-B746-E998D1144FF1}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D6AC-FC48-A72F-DC33BDD1D5E7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>とてもそう思う</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>そう思う</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>どちらでもない</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>そう思わない</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>全くそう思わない</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6AC-FC48-A72F-DC33BDD1D5E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FF36-2141-9918-8894B064DB11}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FF36-2141-9918-8894B064DB11}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{319539D4-D4B5-C841-8F40-7FB220D946EF}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{A8FE9454-4650-994F-A7C8-B592305CD759}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FF36-2141-9918-8894B064DB11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{AF96FED6-C6B2-F540-9848-AD2EC204D5B4}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="bg1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{34670247-A498-144B-B0EF-B30525E2FF9C}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="bg1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25513099778742743"/>
+                      <c:h val="0.15604368729416496"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FF36-2141-9918-8894B064DB11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>使用したグループ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>使用していないグループ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF36-2141-9918-8894B064DB11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1624,47 +2716,25 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1721,7 +2791,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1772,13 +2842,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1789,19 +2852,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1839,7 +2895,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1882,23 +2938,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2003,8 +3058,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2136,20 +3191,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2686,7 +3740,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2743,7 +3797,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2794,6 +3848,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2804,12 +3865,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2847,7 +3915,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2890,22 +3958,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3010,8 +4079,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3143,19 +4212,1058 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3190,42 +5298,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4222750</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>64710</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514048</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>151191</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BA1B3E-2B37-2D4A-9438-E1A547AB0267}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3256,7 +5328,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3292,7 +5364,115 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1249945</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3128209</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF533F6-0646-6248-8C87-BE43069F56F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4892842</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>159083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935789</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173788</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9686EA-1C1B-4F49-B496-74353D9010DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3515894</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>52136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213894</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>240631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06A06A4-9356-EC4E-9319-DEB4EEBE4A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3600,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E781CB-D8E9-CF40-AFA2-E67019AC3230}">
   <dimension ref="B2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/卒論/実験データ.xlsx
+++ b/卒論/実験データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kousuke/Documents/研究/卒論/卒論/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F77C39-E69D-BB47-8D80-13414CD8C2A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BEF4A9-85E7-DF43-A0A6-A7E670E108B3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{9B5B4D4D-ECA4-1F41-853E-1BF01286E3E5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{9B5B4D4D-ECA4-1F41-853E-1BF01286E3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1382,7 +1382,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1391,14 +1393,19 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1CDB-BF4F-B93C-1237EB8F428D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="77000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -1528,7 +1535,71 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CB3CF729-864F-EA4F-85DF-6E5833E11E0D}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{C91BDD96-6AFE-CB49-A892-8C419900D691}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1CDB-BF4F-B93C-1237EB8F428D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10623514507053643"/>
+                  <c:y val="2.1026904977446508E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1544,16 +1615,28 @@
                       <a:t>[分類名]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>
 </a:t>
                     </a:r>
                     <a:fld id="{CE6A7E5D-7894-B244-B6BA-8C591C81E61F}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:pPr/>
                       <a:t>[パーセンテージ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1575,39 +1658,16 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27306691749456408"/>
+                      <c:h val="0.14625291970891707"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-AFD3-2C46-BE2A-7FFFB7835B45}"/>
                 </c:ext>
@@ -1627,7 +1687,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1851,7 +1911,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1860,14 +1922,19 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8CDE-CA4F-BE20-864F58FF106E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="77000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -1997,6 +2064,64 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4A9806E7-CDA0-5049-95E1-040D62E1BFA9}" type="CATEGORYNAME">
+                      <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ja-JP" altLang="en-US" sz="1800" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{EFF14692-1A24-4742-ADA7-1F8C35386380}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[パーセンテージ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8CDE-CA4F-BE20-864F58FF106E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="3"/>
               <c:tx>
                 <c:rich>
@@ -2022,7 +2147,7 @@
 </a:t>
                     </a:r>
                     <a:fld id="{A5B87A36-CFED-BE49-8938-5483B3B5C617}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
@@ -2056,56 +2181,15 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8298B75F-C30D-CA42-B90C-EDD3E20B698C}" type="CATEGORYNAME">
-                      <a:rPr lang="ja-JP" altLang="en-US">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[分類名]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{77852E56-4CB4-A646-B746-E998D1144FF1}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[パーセンテージ]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.30952334967631334"/>
+                      <c:h val="0.14923264968271802"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-D6AC-FC48-A72F-DC33BDD1D5E7}"/>
@@ -2126,7 +2210,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -2328,8 +2412,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="77000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -2348,14 +2432,41 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23721880963206854"/>
+                  <c:y val="-0.13335164593170559"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
                     <a:fld id="{319539D4-D4B5-C841-8F40-7FB220D946EF}" type="CATEGORYNAME">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
+                      <a:pPr>
+                        <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="bg1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
                       <a:t>[分類名]</a:t>
                     </a:fld>
                     <a:r>
@@ -2365,13 +2476,29 @@
                     </a:r>
                     <a:fld id="{A8FE9454-4650-994F-A7C8-B592305CD759}" type="PERCENTAGE">
                       <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-                      <a:pPr/>
+                      <a:pPr>
+                        <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="bg1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
                       <a:t>[パーセンテージ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -2380,6 +2507,12 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25048979198910737"/>
+                      <c:h val="0.24707933924966033"/>
+                    </c:manualLayout>
+                  </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2398,7 +2531,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="bg1"/>
                         </a:solidFill>
@@ -2408,33 +2541,39 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{AF96FED6-C6B2-F540-9848-AD2EC204D5B4}" type="CATEGORYNAME">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
                       <a:pPr>
-                        <a:defRPr>
+                        <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="bg1"/>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[分類名]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                      <a:rPr lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
                     <a:fld id="{34670247-A498-144B-B0EF-B30525E2FF9C}" type="PERCENTAGE">
                       <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr>
+                        <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="bg1"/>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[パーセンテージ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2445,25 +2584,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -2472,10 +2592,15 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.25513099778742743"/>
-                      <c:h val="0.15604368729416496"/>
+                      <c:w val="0.27371401111392524"/>
+                      <c:h val="0.17916940279404553"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -2500,7 +2625,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -2727,12 +2852,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
-  <a:schemeClr val="accent5"/>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4259,525 +4378,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5373,15 +4973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1249945</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>105609</xdr:rowOff>
+      <xdr:colOff>1249944</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>172204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3128209</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>322881</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>80210</xdr:rowOff>
+      <xdr:rowOff>80211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5409,15 +5009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4892842</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>159083</xdr:rowOff>
+      <xdr:colOff>2559260</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>935789</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>173788</xdr:rowOff>
+      <xdr:colOff>193729</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40104</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5450,10 +5050,10 @@
       <xdr:rowOff>52136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>213894</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>240631</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107628</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>150677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5780,8 +5380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E781CB-D8E9-CF40-AFA2-E67019AC3230}">
   <dimension ref="B2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="59" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I44" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
